--- a/biology/Botanique/Duchesse_Bérerd/Duchesse_Bérerd.xlsx
+++ b/biology/Botanique/Duchesse_Bérerd/Duchesse_Bérerd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Duchesse_B%C3%A9rerd</t>
+          <t>Duchesse_Bérerd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">‘Duchesse Bérerd’ est une variété ancienne de poire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Duchesse_B%C3%A9rerd</t>
+          <t>Duchesse_Bérerd</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Duchesse de Bérerd.</t>
         </is>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Duchesse_B%C3%A9rerd</t>
+          <t>Duchesse_Bérerd</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,9 +555,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La variété a été obtenue, vers 1885, d'un semis de Duchesse Bronzée par Étienne Bérerd, propriétaire-arboriculteur, à Quincieux (Rhône)[1]. L'arbre a été commercialisé par L. Chasset en 1905[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variété a été obtenue, vers 1885, d'un semis de Duchesse Bronzée par Étienne Bérerd, propriétaire-arboriculteur, à Quincieux (Rhône). L'arbre a été commercialisé par L. Chasset en 1905.
 </t>
         </is>
       </c>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Duchesse_B%C3%A9rerd</t>
+          <t>Duchesse_Bérerd</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,9 +588,11 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre vigoureux et fertile doit surtout être conduit en formes naines. À cause de son gros volume, le fruit tombe lorsqu'il est exposé au vent. La variété, très appréciée, est répandue[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre vigoureux et fertile doit surtout être conduit en formes naines. À cause de son gros volume, le fruit tombe lorsqu'il est exposé au vent. La variété, très appréciée, est répandue.
 </t>
         </is>
       </c>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Duchesse_B%C3%A9rerd</t>
+          <t>Duchesse_Bérerd</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,16 +621,18 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bronzé, l'épiderme tourne au rougeâtre au soleil.
 La chair est plus fine, plus sucrée que pour Duchesse d'Angoulême, presque fondante, acidulée. 
 Les pédicelles moyens, non charnus, sont implantés obliquement dans une cavité bosselée. 
-Les yeux sont fermés dans une cavité large et évasée[2].
-Le fruit est gros ou très gros, doliforme. Il ressemble à Duchesse d'Angoulême pour sa silhouette. Il est bosselé en son pourtour[2].
+Les yeux sont fermés dans une cavité large et évasée.
+Le fruit est gros ou très gros, doliforme. Il ressemble à Duchesse d'Angoulême pour sa silhouette. Il est bosselé en son pourtour.
 La variété est peu sensible à la tavelure des poiriers.
 Qualité : très bonne.
-Maturité d'octobre à décembre[2].
+Maturité d'octobre à décembre.
 </t>
         </is>
       </c>
